--- a/biology/Histoire de la zoologie et de la botanique/Giuseppe_Giovanni_Antonio_Meneghini/Giuseppe_Giovanni_Antonio_Meneghini.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Giuseppe_Giovanni_Antonio_Meneghini/Giuseppe_Giovanni_Antonio_Meneghini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Giuseppe Giovanni Antonio Meneghini est un naturaliste et un géologue italien, né le 30 juillet 1811 à Padoue et mort le 29 janvier 1889 à Pise.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Giuseppe Giovanni Antonio Meneghini est diplômé de médecine à l’université de Padoue en 1834. En 1835, il devient assistant à la chaire de botanique, en 1839, professeur ordinaire des sciences préparatoires pour la chirurgie. En 1848, son rôle dans le mouvement révolutionnaire lui fait perdre son poste à l’université de Padoue.
 Meneghini s’installe à Pise où il est nommé, en 1849, professeur de minéralogie et de géologie et directeur du muséum de l’université de la ville. Il y remplace Leopoldo Pilla (1805-1848) qui a perdu la vie dans la bataille de Curtatone  qui oppose 5 000 volontaires (principalement des étudiants des universités de Toscane) à 30 000 soldats autrichiens.
@@ -544,7 +558,9 @@
           <t>Minéralogie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une espèce minérale lui a été dédiée : la ménéghinite.
 </t>
@@ -575,7 +591,9 @@
           <t>Principales publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Della teorica degli innesti (Prof. G. Meneghini)Giornale agrario lombardo-veneto e continuazione degli annali universali di tecnologia, di agricoltura, di economia rurale e domestica, di arti e mestieri (1848 giu, Serie 2, Volumen 9, Fascículo 6)
 Storia naturale - Ricerche sulla struttura del caule nelle piante monocotiledoni, di G. Meneghini - Mantissa muscorum J. De Notaris - Plantae quaedam Aegypti ac Nubiae enumeratae qtque illustratae a R. De Visiani - Biblioteca Italiana ossia Giornale di letteratura scienze ed arti (diciembre de 1836, Volumen 84, Fascículo)</t>
@@ -606,7 +624,9 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>En 1886 élu Sénateur de la XVIe Législature du règne de l’Italie.
 En 1860 a été nommé membre de l’Académie nationale des sciences.
@@ -640,7 +660,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(it) Il Museo virtuale delle Collezioni geologiche e storiche</t>
         </is>
